--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE34260-0B87-4237-80C7-CB0F59A6D122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECC07A8-E16D-48C2-A6F2-ACE3939AC15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="97">
   <si>
     <t>UC_N</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
-  </si>
-  <si>
-    <t>~UC_T: LO</t>
   </si>
   <si>
     <t>ELC</t>
@@ -810,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEB9B52-0D25-4BAC-94A8-E3500D4397D3}">
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -831,9 +828,7 @@
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="2:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="4" t="s">
@@ -846,7 +841,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -861,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -869,14 +864,14 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -901,14 +896,14 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -927,26 +922,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -974,551 +969,551 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="C46" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -1537,41 +1532,41 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>72</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>73</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>74</v>
-      </c>
-      <c r="F3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
         <v>76</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>77</v>
       </c>
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
       <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
         <v>76</v>
-      </c>
-      <c r="F4" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1589,83 +1584,83 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
         <v>80</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>81</v>
       </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s">
         <v>80</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>81</v>
       </c>
-      <c r="K3" t="s">
-        <v>82</v>
-      </c>
       <c r="M3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O3" t="s">
         <v>94</v>
-      </c>
-      <c r="O3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4">
         <v>0.99999979999999999</v>
       </c>
       <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
         <v>84</v>
       </c>
-      <c r="E4" t="s">
-        <v>85</v>
-      </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I4">
         <v>0.999999999999855</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N4">
         <v>1.2000000000000002</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1677,51 +1672,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF66732-F011-4882-A4DF-C75CE609C736}">
   <dimension ref="B2:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
@@ -1732,25 +1727,25 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O4">
         <v>0.29211718079128235</v>
@@ -1758,10 +1753,10 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="H5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J5">
         <v>1</v>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECC07A8-E16D-48C2-A6F2-ACE3939AC15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09883042-2287-43B6-B6A4-8BF090BDB19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -807,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEB9B52-0D25-4BAC-94A8-E3500D4397D3}">
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -828,7 +828,10 @@
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="str">
+        <f>IF(C13=C14,"Not Required!","~UC_T: LO")</f>
+        <v>Not Required!</v>
+      </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="4" t="s">
@@ -1523,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EFEB87-5C8C-48AB-9497-E004EB6354DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2ECBF9E-6496-48EF-946B-8CD1A7368E50}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1575,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C9BF3B-BA21-4611-8074-429A934B0932}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA65AEC4-EB86-4F5D-AEC8-84440511DEBA}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1657,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1669,10 +1672,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF66732-F011-4882-A4DF-C75CE609C736}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D82EA4D-4735-48CB-BC01-E14E652EF5AD}">
   <dimension ref="B2:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09883042-2287-43B6-B6A4-8BF090BDB19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDEC9FE3-593D-412C-927E-744512659EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="99">
   <si>
     <t>UC_N</t>
   </si>
@@ -252,6 +252,9 @@
     <t>timeslice</t>
   </si>
   <si>
+    <t>~TimeSlices</t>
+  </si>
+  <si>
     <t>season</t>
   </si>
   <si>
@@ -276,7 +279,13 @@
     <t>AllH</t>
   </si>
   <si>
-    <t>~TimeSlices</t>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>commodity</t>
   </si>
   <si>
     <t>com_fr</t>
@@ -285,7 +294,7 @@
     <t>process</t>
   </si>
   <si>
-    <t>commodity</t>
+    <t>elc_spv-CHE</t>
   </si>
   <si>
     <t>AllSaAllH</t>
@@ -294,15 +303,12 @@
     <t>IMPNRGZ</t>
   </si>
   <si>
-    <t>elc_spv-CHE</t>
-  </si>
-  <si>
-    <t>~TFM_DINS-AT</t>
-  </si>
-  <si>
     <t>elc_won-CHE</t>
   </si>
   <si>
+    <t>elc_wof-CHE</t>
+  </si>
+  <si>
     <t>g_yrfr</t>
   </si>
   <si>
@@ -321,6 +327,9 @@
     <t>com_pkflx</t>
   </si>
   <si>
+    <t>~TFM_INS-AT</t>
+  </si>
+  <si>
     <t>ncap_afs</t>
   </si>
   <si>
@@ -328,16 +337,17 @@
   </si>
   <si>
     <t>hydro</t>
-  </si>
-  <si>
-    <t>~TFM_INS-AT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,8 +401,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FF969696"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,8 +452,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -457,6 +512,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -468,7 +553,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -484,6 +569,20 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -506,6 +605,171 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{540394C4-29DA-BA4A-DE6C-C14BE69065F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296862</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40EA1E80-89C0-C114-F5A1-7568F6156995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296863</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7DCC5B3-AAFC-81BB-FFD0-183F5C810C07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -925,7 +1189,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
@@ -936,7 +1200,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
@@ -944,7 +1208,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1526,246 +1790,347 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2ECBF9E-6496-48EF-946B-8CD1A7368E50}">
-  <dimension ref="B2:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A82F4A2-B6A5-414A-83D1-A2D1D6EB768A}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="6" width="10.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="1" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E11" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F11" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" t="s">
-        <v>76</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA65AEC4-EB86-4F5D-AEC8-84440511DEBA}">
-  <dimension ref="B2:O4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7865307D-EE46-441B-B97E-C5E8A1FFBCBE}">
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.59765625" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.59765625" customWidth="1"/>
+    <col min="17" max="19" width="10.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="S10" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D11" s="14">
+        <v>0.99999999999983236</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="M2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" t="s">
-        <v>93</v>
-      </c>
-      <c r="O3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4">
-        <v>0.99999979999999999</v>
-      </c>
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4">
-        <v>0.999999999999855</v>
-      </c>
-      <c r="J4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="I11" s="14">
+        <v>0.99999999999985723</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="M4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4">
+      <c r="L11" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" s="15">
+        <v>0</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" s="22">
         <v>1.2</v>
       </c>
-      <c r="O4" t="s">
-        <v>95</v>
+      <c r="S11" s="21" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D82EA4D-4735-48CB-BC01-E14E652EF5AD}">
-  <dimension ref="B2:O5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8109B3D2-9770-4FD5-B07D-8E59A57826CF}">
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.59765625" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="1" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B11" s="16">
+        <v>1</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="M2" t="s">
+      <c r="I11" s="16">
+        <v>1</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4">
+      <c r="M11" s="14">
+        <v>0.29211718079128235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="G12" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="18">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4">
-        <v>0.29211718079128235</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>